--- a/challenges/12_XL2JSON/webex_groups.xlsx
+++ b/challenges/12_XL2JSON/webex_groups.xlsx
@@ -7,16 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mipSti1J2EHLdb9pePzzNGs1GOKWA=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>group</t>
   </si>
@@ -130,9 +125,6 @@
   </si>
   <si>
     <t>mikail.defossez@student.bxl.be</t>
-  </si>
-  <si>
-    <t>* names are non-existent</t>
   </si>
 </sst>
 </file>
@@ -152,12 +144,16 @@
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <i/>
       <sz val="9.0"/>
@@ -215,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -230,13 +226,8 @@
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -492,9 +483,6 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -526,9 +514,6 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -537,32 +522,29 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -594,9 +576,6 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -608,29 +587,26 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -662,9 +638,6 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -676,29 +649,26 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -730,9 +700,6 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -744,29 +711,26 @@
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -798,9 +762,6 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -812,29 +773,26 @@
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -866,9 +824,6 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -880,29 +835,26 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -934,9 +886,6 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -948,29 +897,26 @@
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -1002,9 +948,6 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -1016,38 +959,33 @@
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
